--- a/src/data/DEUDA.xlsx
+++ b/src/data/DEUDA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEONARDO ACUÑA\Documents\6 semestre\MyS\Proyecto-Monitoreo\Backend\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\OneDrive\Documentos\Proyecto Modelo Codigo\api-monitoreo-financiero\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C2AE1-B856-423E-901B-EC3B21F88E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936395B7-A265-4DCB-AE92-E2D0680D9440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,10 +1488,17 @@
   <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
